--- a/docs/assets/disciplinas/LOM3073.xlsx
+++ b/docs/assets/disciplinas/LOM3073.xlsx
@@ -28,7 +28,7 @@
     <t>Nome:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Processamento de Cerâmicas I</t>
+    <t xml:space="preserve"> Processamento de Cerâmicas</t>
   </si>
   <si>
     <t>Name:</t>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-7</t>
+    <t>EM-6</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -133,7 +133,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3071 -  Tratamento de Minérios  (Requisito fraco)
+    <t xml:space="preserve">LOM3113 -  Tratamentos de Minérios e Hidrometalurgia  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3073.xlsx
+++ b/docs/assets/disciplinas/LOM3073.xlsx
@@ -46,19 +46,19 @@
     <t>Créditos-trabalho</t>
   </si>
   <si>
-    <t>0</t>
+    <t>1</t>
   </si>
   <si>
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>60 h</t>
+    <t>90 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>

--- a/docs/assets/disciplinas/LOM3073.xlsx
+++ b/docs/assets/disciplinas/LOM3073.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>1 - Capacitar o aluno a entender e discutir as teorias e fenômenos envolvidos no processamento cerâmico, 2 - Conhecer as matérias-primas naturais e sintéticas, bem como suas ocorrências e propriedade, 3 - Capacitar o aluno a utilizar instrumentos e métodos que visam transformar matérias-primas cerâmicas em produtos</t>
+    <t>5983729 - Fernando Vernilli Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5983729 - Fernando Vernilli Junior</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1 – Introdução, 2 - Matérias primas naturais e sintéticas, 3 - Preparo de massas cerâmicas, 4 – Conformação, 5 - Variáveis críticas no controle do processamento, 6 – Testes experimentais</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1 – Introdução - conceito e definições. História; 2 – Matérias primas - naturais plásticas e não plásticas: origem, ocorrência, propriedades físico-químicas, beneficiamento; 3 – Matérias-primas sintéticas: sínteses e processos químicos; 4 – Caracterização físico-química dos pós cerâmicos; 5 – Aditivos: plastificantes, defloculantes, lubrificantes e agentes suspensores; 6 – Preparo de massas cerâmicas - tipo de massas: branca, vermelha, refratária e especiais; preparo e propriedades reológicas de pastas e suspensões cerâmicas (moagem, tipos de moinhos, carregamento e contaminação - métodos de aglomeração: “spray drier”e disco (misturador Eirich); 7 – Conformação via seca: teoria, tipos; equipamentos, etapas do ciclo de prensagem e defeitos nas peças; 8 – Conformação via líquida e pastas: teoria, estabilidade e reologia das suspensões, diagrama de Atterberg, moldes, equipamentos, etapas do ciclo e defeitos característicos da formação; 9 - Variáveis críticas no controle do processamento - influência das características dos materiais e dos equipamentos no estabelecimento das condições de conformação. 10 – Fundamentos e processos inovadores de conformação de materiais cerâmicos. 11 - Testes experimentais.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>a) Duas provas escritas (P1 e P2, com peso 1)b) Relatórios sobre os testes experimentais: soma das notas dos relatórios divido pelo número de relatórios (SR), com peso 1.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aplicadas duas avaliações escritas (P1 e P2, com peso 1). A nota final serão calculada pela equaçãoNF = (P1+P2+MR)/3. NF igual ou superior a 5: aprovação direta. NF entre 3 e 4,9: recuperação. NF inferior a 3: reprovação direta.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2. Média final igual ou superior a 5 (cinco): aprovado. NF inferior a 5: reprovado.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. Santos, P.S. Tecnologia de Argilas, vol. 2, EDUSP, 1975 e 1989,2. Dispersão e empacotamento de partículas, Fazendo Arte Editorial. Ivone R de Oliveira e co-autores, 2000,3. Norton, F.H. Introdução à Tecnologia Cerâmica, Ed. Edgard Blucher, 1973,4. Kingery, W.D. Introduction to Ceramics, John Wiley, 1970 e 1976, 2nd Edition, 5. Reed, J.S. Principles of Ceramics Processing, John Wiley, 1988, 6. Rahaman, M. N. Ceramic Processing and Sintering. 1st Edition, 1993, 7.Van Vlack, L.M. Propriedades dos Materiais Cerâmicos, Ed. Edgard Blucher, 1973, 8. Ceramic Materials: Science and Engineering, C. Barry Carter, M. Grant Norton  2nd ed., 2013,9. Fundamentals of Ceramic Powder Processing and Synthesis: Terry A. Ring10. Artigos da literatura especializada</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3073.xlsx
+++ b/docs/assets/disciplinas/LOM3073.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2022</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -103,13 +103,13 @@
     <t>Critério:</t>
   </si>
   <si>
-    <t>a) Duas provas escritas (P1 e P2, com peso 1)b) Relatórios sobre os testes experimentais: soma das notas dos relatórios divido pelo número de relatórios (SR), com peso 1.</t>
+    <t>O aprendizado teórico será avaliado por meio de provas escritas presenciais e os conhecimentos gerais e específicos serão avaliados pela monografia e apresentação do projeto, e participação nas discussões individuais e em grupos.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações escritas (P1 e P2, com peso 1). A nota final serão calculada pela equaçãoNF = (P1+P2+MR)/3. NF igual ou superior a 5: aprovação direta. NF entre 3 e 4,9: recuperação. NF inferior a 3: reprovação direta.</t>
+    <t>(a) duas provas escritas (P1 e P2) valendo de zero a dez, (b) nota de projeto (NP): monografia (variando de zero a seis), (c) apresentação oral, (AO), (variando de zero a quatro), (d) participação nas aulas (PA), valendo de zero a dez).A nota final (NF) será calculada pela equação:NF = 0,9 x [(P1+P2+NP)/3]+0,1 (PA) NF igual ou superior a 5: aprovação direta. NF entre 3 e 4,9: recuperação. NF inferior a 3: reprovação direta.</t>
   </si>
   <si>
     <t>Bibliografia:</t>

--- a/docs/assets/disciplinas/LOM3073.xlsx
+++ b/docs/assets/disciplinas/LOM3073.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Esta disciplina faz parte da formação do engenheiro de materiais, inserida na grande área “CERÂMICA”, contribuindo para gerar competências gerais e específicas.Capacitar os alunos a desenvolverem uma visão integrada da viabilidade técnico-econômica-ambiental das principais tecnologias envolvidas no processamento de cerâmicas.Incentivar trabalhos em grupo, com ênfase na visão integrada sobre os aspectos abordados na disciplina.Promover a comunicação nas formas escrita, oral e gráfica, além de trabalhos em grupos.Relacionar esta disciplina com outras da grade do curso, tanto com as de formação específica quanto às de formação geral.Apresentar os principais equipamentos envolvidos no processamento de cerâmicas preparando os alunos para a disciplina “Processamento de Cerâmicas Experimental</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5983729 - Fernando Vernilli Junior</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1 – Introdução, 2 – Principais matérias-primas naturais e sintéticas, 3 - Preparo de massas cerâmicas, 4 – Conformação, 5 – Queima (sintereização), 6 - Variáveis críticas no controle do processamento, 7 – Usinagem de materiais cerâmicos. 8 – Projeto</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 – Introdução: definições, setores cerâmicos, aplicações e fontes de divulgação da área de cerâmicas. 2 - Principais matérias-primas naturais e sintéticas: ocorrencias naturais e beneficiamento e sínteses de cerâmicas avançadas. 3 - Preparo de massas cerâmicas: formulação de composições cerâmicas com e sem utilização de diagramas de fases, reologia das barbotinas e pastas. 4 – Conformação:  equipamentos utilizados na conformação de cerâmicas tradicionais e técnicas, defeitos e problemas na conformação, métodos de conformação (colagem de barbotina, prensagem, extrusão, injeção). 5 – Queima (sintereização): curva de queima, eventos pré-sinterização, sinterização, mecanismos de sinterização, equipamentos, sinterização rápida, microestrutura (controle microestrutural, relação microestrutura x propriedades), 6 - Variáveis críticas no controle do processamento: avaliadas em cada etapa do processamento. 7 - Usinagem de materiais cerâmicos: usinagem a verde e após sinterização, defeitos superficiais introduzidos, acabamento.8 – Projeto: Desenvolvimento de produtos cerâmicos levando em conta aspectos de inovação, sustentabilidade, social e ecônômico. Este tópico deverá ser desenvolvido em grupo.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1922320 - Sebastiao Ribeiro</t>
+    <t>O aprendizado teórico será avaliado por meio de provas escritas presenciais e os conhecimentos gerais e específicos serão avaliados pela monografia e apresentação do projeto, e participação nas discussões individuais e em grupos.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O aprendizado teórico será avaliado por meio de provas escritas presenciais e os conhecimentos gerais e específicos serão avaliados pela monografia e apresentação do projeto, e participação nas discussões individuais e em grupos.</t>
+    <t>(a) duas provas escritas (P1 e P2) valendo de zero a dez, (b) nota de projeto (NP): monografia (variando de zero a seis), (c) apresentação oral, (AO), (variando de zero a quatro), (d) participação nas aulas (PA), valendo de zero a dez).A nota final (NF) será calculada pela equação:NF = 0,9 x [(P1+P2+NP)/3]+0,1 (PA) NF igual ou superior a 5: aprovação direta. NF entre 3 e 4,9: recuperação. NF inferior a 3: reprovação direta.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>(a) duas provas escritas (P1 e P2) valendo de zero a dez, (b) nota de projeto (NP): monografia (variando de zero a seis), (c) apresentação oral, (AO), (variando de zero a quatro), (d) participação nas aulas (PA), valendo de zero a dez).A nota final (NF) será calculada pela equação:NF = 0,9 x [(P1+P2+NP)/3]+0,1 (PA) NF igual ou superior a 5: aprovação direta. NF entre 3 e 4,9: recuperação. NF inferior a 3: reprovação direta.</t>
+    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2. Média final igual ou superior a 5 (cinco): aprovado. NF inferior a 5: reprovado.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2. Média final igual ou superior a 5 (cinco): aprovado. NF inferior a 5: reprovado.</t>
+    <t>1. Santos, P.S. Tecnologia de Argilas, vol. 2, EDUSP, 1975 e 1989, 2. Dispersão e empacotamento de partículas, Fazendo Arte Editorial. Ivone R de Oliveira e co-autores, 2000, 3. Norton, F.H. Introdução à Tecnologia Cerâmica, Ed. Edgard Blucher, 1973, 4. Kingery, W.D. Introduction to Ceramics, John Wiley, 1970 e 1976, 2nd Edition, 5. Reed, J.S. Principles of Ceramics Processing, John Wiley, 1988, 6. Rahaman, M. N. Ceramic Processing and Sintering. 1st Edition, 1993, 7.Van Vlack, L.M. Propriedades dos Materiais Cerâmicos, Ed. Edgard Blucher, 1973, 8. Ceramic Materials: Science and Engineering, C. Barry Carter, M. Grant Norton 2nd ed., 2013, 9. Fundamentals of Ceramic Powder Processing and Synthesis: Terry A. Ring, 11. Setz, L.F. G. O Processamento Cerâmico sem Mistério. 1ª edição, 256 páginas, Edgard Blücher, 2019, 12. M. F. Ashby, D.R. H. Jones, Engenharia de Materiais, Volume II, 3° edição, Elsevier, p.436, 2007, 13. Artigos da literatura especializada</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
